--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99EE3C1D-37F2-408F-B069-EE4EAB6FD1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D65ACA8-28B9-4B3E-B01D-45B8F3176030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
   <si>
     <t>Venue</t>
   </si>
@@ -360,6 +360,69 @@
   </si>
   <si>
     <t>Zimmer Biomet Páirc Chíosóg, Ennis</t>
+  </si>
+  <si>
+    <t>DEFY Pairc Mhuire, Ardee</t>
+  </si>
+  <si>
+    <t>Athleague</t>
+  </si>
+  <si>
+    <t>FBD Semple Stadium</t>
+  </si>
+  <si>
+    <t>Manguard Park</t>
+  </si>
+  <si>
+    <t>Castleblayney</t>
+  </si>
+  <si>
+    <t>Crossmaglen</t>
+  </si>
+  <si>
+    <t>Ballygunner</t>
+  </si>
+  <si>
+    <t>Bansha</t>
+  </si>
+  <si>
+    <t>Grant Heating St Brendan's Park, Birr</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
+    <t>Kent Park, Ballydoogan, Sligo</t>
+  </si>
+  <si>
+    <t>Fethard Town Park, Grass Pitch</t>
+  </si>
+  <si>
+    <t>Lavey</t>
+  </si>
+  <si>
+    <t>SETU Arena, Carriganore</t>
+  </si>
+  <si>
+    <t>St Joseph's Glenavy, Antrim</t>
+  </si>
+  <si>
+    <t>Páirc Éanna, Glengormley</t>
+  </si>
+  <si>
+    <t>O Neill Park, Dungannon</t>
+  </si>
+  <si>
+    <t>Shane McGettigan Park, Drumshanbo</t>
+  </si>
+  <si>
+    <t>Inniskeen</t>
+  </si>
+  <si>
+    <t>Páirc Uí Rinn</t>
+  </si>
+  <si>
+    <t>Healy Park, Omagh</t>
   </si>
 </sst>
 </file>
@@ -731,11 +794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1313,6 +1382,174 @@
         <v>100</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D65ACA8-28B9-4B3E-B01D-45B8F3176030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B0F3C-CD54-44B5-A357-C8F662E31647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
   <si>
     <t>Venue</t>
   </si>
@@ -423,6 +423,24 @@
   </si>
   <si>
     <t>Healy Park, Omagh</t>
+  </si>
+  <si>
+    <t>Cloghan, Entekra COE</t>
+  </si>
+  <si>
+    <t>Derrylin O'Connells GAA, Derrylin</t>
+  </si>
+  <si>
+    <t>Lemybrien</t>
+  </si>
+  <si>
+    <t>Clontibret</t>
+  </si>
+  <si>
+    <t>Páirc Tailteann</t>
+  </si>
+  <si>
+    <t>LIT Gaelic Grounds, Limerick</t>
   </si>
 </sst>
 </file>
@@ -794,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1568,54 @@
         <v>42</v>
       </c>
     </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B0F3C-CD54-44B5-A357-C8F662E31647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E205143-187D-464F-8047-29CA465148BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>Venue</t>
   </si>
@@ -441,6 +441,33 @@
   </si>
   <si>
     <t>LIT Gaelic Grounds, Limerick</t>
+  </si>
+  <si>
+    <t>Bord Na Mona O Connor Park,</t>
+  </si>
+  <si>
+    <t>Ballina Stephenites</t>
+  </si>
+  <si>
+    <t>University of Limerick 3G Pitch</t>
+  </si>
+  <si>
+    <t>Kiltoom</t>
+  </si>
+  <si>
+    <t>Eire Og, Carrickmore</t>
+  </si>
+  <si>
+    <t>Darver</t>
+  </si>
+  <si>
+    <t>Páirc na hÓige, Maguiresbridge</t>
+  </si>
+  <si>
+    <t>O'Tooles, Dublin</t>
+  </si>
+  <si>
+    <t>Bellefield, Enniscorthy</t>
   </si>
 </sst>
 </file>
@@ -812,11 +839,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1616,6 +1641,78 @@
         <v>71</v>
       </c>
     </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E205143-187D-464F-8047-29CA465148BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60841D-2DBC-4F19-B0D7-62564AF3A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Venue</t>
   </si>
@@ -468,6 +468,18 @@
   </si>
   <si>
     <t>Bellefield, Enniscorthy</t>
+  </si>
+  <si>
+    <t>Geraldines GFC, Dundalk</t>
+  </si>
+  <si>
+    <t>Manguard Park Pitch 1</t>
+  </si>
+  <si>
+    <t>Ballinascreen</t>
+  </si>
+  <si>
+    <t>Baltinglass</t>
   </si>
 </sst>
 </file>
@@ -839,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1713,6 +1725,38 @@
         <v>29</v>
       </c>
     </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60841D-2DBC-4F19-B0D7-62564AF3A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422FD853-8F79-44DC-B1F3-5BDC810788A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>Venue</t>
   </si>
@@ -480,6 +480,30 @@
   </si>
   <si>
     <t>Baltinglass</t>
+  </si>
+  <si>
+    <t>Laois Hire O'Moore Park</t>
+  </si>
+  <si>
+    <t>Heartland Credit Union Páirc Seán MacDiarmada</t>
+  </si>
+  <si>
+    <t>Fitzgerald Stadium, Killarney</t>
+  </si>
+  <si>
+    <t>SuperValu Páirc Uí Chaoimh</t>
+  </si>
+  <si>
+    <t>Brewster Park</t>
+  </si>
+  <si>
+    <t>TEG Cusack Park</t>
+  </si>
+  <si>
+    <t>Roger Casements, Portglenone</t>
+  </si>
+  <si>
+    <t>King &amp; Moffatt Dr. Hyde Park</t>
   </si>
 </sst>
 </file>
@@ -851,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,6 +1781,70 @@
         <v>16</v>
       </c>
     </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422FD853-8F79-44DC-B1F3-5BDC810788A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBD03D-47E8-4242-88C0-3B2DC0D78448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
   <si>
     <t>Venue</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>King &amp; Moffatt Dr. Hyde Park</t>
+  </si>
+  <si>
+    <t>Michael Fay Park, Longford Slashers</t>
+  </si>
+  <si>
+    <t>Moneygall</t>
+  </si>
+  <si>
+    <t>Azzurri Walsh Park, Waterford</t>
+  </si>
+  <si>
+    <t>Rurai Og Cushendall</t>
   </si>
 </sst>
 </file>
@@ -875,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1845,6 +1857,38 @@
         <v>61</v>
       </c>
     </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBD03D-47E8-4242-88C0-3B2DC0D78448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50416A5E-A478-4ADB-96F6-4BDA9E89C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="163">
   <si>
     <t>Venue</t>
   </si>
@@ -516,6 +516,15 @@
   </si>
   <si>
     <t>Rurai Og Cushendall</t>
+  </si>
+  <si>
+    <t>Find Insurance Celtic Park, Derry</t>
+  </si>
+  <si>
+    <t>VBC Cloghan, Castleblayney</t>
+  </si>
+  <si>
+    <t>Cappoquin Logistics Fraher Field</t>
   </si>
 </sst>
 </file>
@@ -887,9 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1889,6 +1900,30 @@
         <v>35</v>
       </c>
     </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venue_county_list.xlsx
+++ b/venue_county_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thmsw\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50416A5E-A478-4ADB-96F6-4BDA9E89C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD861CE-7C08-4953-B64D-6F952E74E5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55CD08A6-343C-4205-AC7E-2A1A947C7589}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="166">
   <si>
     <t>Venue</t>
   </si>
@@ -525,6 +525,15 @@
   </si>
   <si>
     <t>Cappoquin Logistics Fraher Field</t>
+  </si>
+  <si>
+    <t>Páirc Grattan, Inniskeen</t>
+  </si>
+  <si>
+    <t>Toomevara, Tipperary</t>
+  </si>
+  <si>
+    <t>Corrigan Park</t>
   </si>
 </sst>
 </file>
@@ -896,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E2BE-3312-42BE-8D85-3BE396EF8065}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,6 +1933,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
